--- a/input.xlsx
+++ b/input.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TGC\Desktop\Kayn Project\Spy Ads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B091E21-F9C8-4A2A-B60B-12FA54B40351}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4FB643C-6EE6-4264-A9F8-F402A7358382}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1125" yWindow="1125" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,46 +26,79 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="22">
   <si>
     <t>keyword</t>
   </si>
   <si>
-    <t>binance in dubai</t>
-  </si>
-  <si>
-    <t>buy a house in dubai</t>
-  </si>
-  <si>
-    <t>how to go to dubai</t>
-  </si>
-  <si>
-    <t>where is dubai</t>
-  </si>
-  <si>
-    <t>dubai destination</t>
-  </si>
-  <si>
-    <t>dubai job</t>
-  </si>
-  <si>
-    <t>dubai girl</t>
-  </si>
-  <si>
-    <t>make money online</t>
-  </si>
-  <si>
-    <t>dubai salary range</t>
-  </si>
-  <si>
-    <t>china town in usa</t>
+    <t>proxy</t>
+  </si>
+  <si>
+    <t>p.webshare.io:80:ycovlmxv-AU-1:zpesxkuiusk4</t>
+  </si>
+  <si>
+    <t>p.webshare.io:80:ycovlmxv-5:zpesxkuiusk4</t>
+  </si>
+  <si>
+    <t>bybit</t>
+  </si>
+  <si>
+    <t>binance</t>
+  </si>
+  <si>
+    <t>bingx</t>
+  </si>
+  <si>
+    <t>gate io</t>
+  </si>
+  <si>
+    <t>gate</t>
+  </si>
+  <si>
+    <t>bitget</t>
+  </si>
+  <si>
+    <t>mexc</t>
+  </si>
+  <si>
+    <t>okx</t>
+  </si>
+  <si>
+    <t>delta exchange</t>
+  </si>
+  <si>
+    <t>bitmart</t>
+  </si>
+  <si>
+    <t>p.webshare.io:80:ycovlmxv-1:zpesxkuiusk4</t>
+  </si>
+  <si>
+    <t>p.webshare.io:80:ycovlmxv-2:zpesxkuiusk4</t>
+  </si>
+  <si>
+    <t>p.webshare.io:80:ycovlmxv-3:zpesxkuiusk4</t>
+  </si>
+  <si>
+    <t>p.webshare.io:80:ycovlmxv-4:zpesxkuiusk4</t>
+  </si>
+  <si>
+    <t>p.webshare.io:80:ycovlmxv-6:zpesxkuiusk4</t>
+  </si>
+  <si>
+    <t>p.webshare.io:80:ycovlmxv-TH-1:zpesxkuiusk4</t>
+  </si>
+  <si>
+    <t>p.webshare.io:80:ycovlmxv-AR-1:zpesxkuiusk4</t>
+  </si>
+  <si>
+    <t>p.webshare.io:80:ycovlmxv-BE-1:zpesxkuiusk4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -72,13 +106,26 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -93,8 +140,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -375,67 +423,151 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A11"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="H6" sqref="H6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB171A01-055D-476C-B3F6-83E89EE245EF}">
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>13</v>
+      </c>
+      <c r="B11" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
